--- a/biology/Zoologie/Argus_de_l'hélianthème/Argus_de_l'hélianthème.xlsx
+++ b/biology/Zoologie/Argus_de_l'hélianthème/Argus_de_l'hélianthème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Argus_de_l%27h%C3%A9lianth%C3%A8me</t>
+          <t>Argus_de_l'hélianthème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aricia artaxerxes
 L’Argus de l'hélianthème (Aricia artaxerxes) est une espèce de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Argus_de_l%27h%C3%A9lianth%C3%A8me</t>
+          <t>Argus_de_l'hélianthème</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aricia artaxerxes (Fabricius, 1793)
-Synonymes[1] : 
+Synonymes : 
 Plebeius artaxerxes (Fabricius, 1793)
 Hesperia artaxerxes  (Fabricius, 1793)
 Aricia artaxerxes (Fabricius, 1793)
@@ -523,17 +537,85 @@
 Aricia macedonica (Verity, 1936)
 Aricia montensis (Verity, 1928)
 Lycaena montana (Heyne, 1895)
-Lycaena nevadensis (Oberthür, 1910)
-Noms vernaculaires
-en français : l’Argus de l'hélianthème
+Lycaena nevadensis (Oberthür, 1910)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Argus_de_l'hélianthème</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_l%27h%C3%A9lianth%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>en français : l’Argus de l'hélianthème
 en anglais : Northern Brown ou Scotch Argus
 en allemand : Große Sonnenröschen-Bläuling
-en néerlandais : Vals bruin blauwtje
-Sous-espèces
-Aricia  artaxerxes artaxerxes présent en Écosse[2]
+en néerlandais : Vals bruin blauwtje</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Argus_de_l'hélianthème</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_l%27h%C3%A9lianth%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aricia  artaxerxes artaxerxes présent en Écosse
 Aricia artaxerxes allous (Geyer, 1836) le Mountain Argus présent dans les Alpes
 Aricia artaxerxes hakutozana (Matsumura, 1927) en Corée
-Aricia artaxerxes inhonora Jachontov, 1909  dans l'Oural (serait synonymes de Aricia artaxerxes allous[2])
+Aricia artaxerxes inhonora Jachontov, 1909  dans l'Oural (serait synonymes de Aricia artaxerxes allous)
 Aricia artaxerxes lepsinskana (Obraztsov, 1935)
 Aricia artaxerxes mandzhuriana (Obraztsov, 1935)
 Aricia artaxerxes montensis (Verity, 1928) en Espagne (Andalousie)
@@ -545,79 +627,7 @@
 Aricia artaxerxes transalaica (Obratzov, 1935) dans l'Himalaya
 Aricia artaxerxes turgaica (Obraztsov, 1935)
 Aricia artaxerxes ukrainica (Obraztsov, 1936)
-Aricia artaxerxes vancalica Kaaber et Hoegh-Guldberg, 1961 dans l'ouest de l'Europe[3]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Argus_de_l%27h%C3%A9lianth%C3%A8me</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Argus_de_l%27h%C3%A9lianth%C3%A8me</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imago
-C'est un petit papillon au dessus marron orné d'une ligne sub marginale de taches orange, limité aux ailes postérieures chez le mâle. Ils ont une frange blanche.
-Le revers est beige, les ailes sont ornées d'une ligne de points blancs centrés de noir et d'une ligne submarginale de taches orange.
-Espèce proche
-Ressemble au Collier-de-corail (Aricia agestis).
-Chenille
-La chenille, petite et trapue, possède une tête rétractile noire et un corps vert avec une ligne dorsale brun vert d'où partent des traits obliques vert foncé et sur les flancs une paire de lignes blanches bordées de rose[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Argus_de_l%27h%C3%A9lianth%C3%A8me</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Argus_de_l%27h%C3%A9lianth%C3%A8me</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération de juin à août.
-Il hiverne à l'état de chenille. Les chenilles sont soignées par les fourmis, Lasius sp[2].
-Plantes hôtes
-Ses plantes hôte sont des Helianthemum, Helianthemum nummularium en particulier.
-</t>
+Aricia artaxerxes vancalica Kaaber et Hoegh-Guldberg, 1961 dans l'ouest de l'Europe</t>
         </is>
       </c>
     </row>
@@ -627,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Argus_de_l%27h%C3%A9lianth%C3%A8me</t>
+          <t>Argus_de_l'hélianthème</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -642,17 +652,280 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon au dessus marron orné d'une ligne sub marginale de taches orange, limité aux ailes postérieures chez le mâle. Ils ont une frange blanche.
+Le revers est beige, les ailes sont ornées d'une ligne de points blancs centrés de noir et d'une ligne submarginale de taches orange.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Argus_de_l'hélianthème</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_l%27h%C3%A9lianth%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Espèce proche</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ressemble au Collier-de-corail (Aricia agestis).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Argus_de_l'hélianthème</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_l%27h%C3%A9lianth%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille, petite et trapue, possède une tête rétractile noire et un corps vert avec une ligne dorsale brun vert d'où partent des traits obliques vert foncé et sur les flancs une paire de lignes blanches bordées de rose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Argus_de_l'hélianthème</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_l%27h%C3%A9lianth%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération de juin à août.
+Il hiverne à l'état de chenille. Les chenilles sont soignées par les fourmis, Lasius sp.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Argus_de_l'hélianthème</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_l%27h%C3%A9lianth%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôte sont des Helianthemum, Helianthemum nummularium en particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Argus_de_l'hélianthème</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_l%27h%C3%A9lianth%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est présent en Afrique du Nord (Maroc), montagnes d'Europe (Espagne, France, Suisse, Balkans, Grèce, dans l'ouest de l'Écosse et en Scandinavie, puis en Asie jusqu'au Pacifique.
-En France métropolitaine, il est présent dans les Alpes, le Jura, les Pyrénées et le Sud du Massif central[5]
-Biotope
-Il habite les landes de montagne.
-Protection
-Pas de statut de protection particulier.
+En France métropolitaine, il est présent dans les Alpes, le Jura, les Pyrénées et le Sud du Massif central
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Argus_de_l'hélianthème</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_l%27h%C3%A9lianth%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il habite les landes de montagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Argus_de_l'hélianthème</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_l%27h%C3%A9lianth%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
